--- a/Code/Results/Cases/Case_7_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_50/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.15946101823639</v>
+        <v>21.89412238184926</v>
       </c>
       <c r="C2">
-        <v>14.29080880336913</v>
+        <v>11.49686224495789</v>
       </c>
       <c r="D2">
-        <v>3.988899624112852</v>
+        <v>3.98212321737497</v>
       </c>
       <c r="E2">
-        <v>6.090072782415228</v>
+        <v>7.034194120250254</v>
       </c>
       <c r="F2">
-        <v>32.56744649964661</v>
+        <v>20.81500362395981</v>
       </c>
       <c r="G2">
-        <v>2.072718159428288</v>
+        <v>2.069546857272832</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.518481350019196</v>
+        <v>7.184128539079144</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.27189157377975</v>
+        <v>11.69788917919817</v>
       </c>
       <c r="O2">
-        <v>25.47065864040905</v>
+        <v>16.35989236196269</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.35854512397216</v>
+        <v>20.40365515716801</v>
       </c>
       <c r="C3">
-        <v>13.37699979869486</v>
+        <v>11.04502035500594</v>
       </c>
       <c r="D3">
-        <v>4.095168447988704</v>
+        <v>3.904170323522174</v>
       </c>
       <c r="E3">
-        <v>6.125768794283426</v>
+        <v>7.054831493805463</v>
       </c>
       <c r="F3">
-        <v>31.12842943505125</v>
+        <v>20.0914831364878</v>
       </c>
       <c r="G3">
-        <v>2.083168362514149</v>
+        <v>2.075443495229644</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.250461209073435</v>
+        <v>6.92827810384834</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.55598546554715</v>
+        <v>11.86910640209475</v>
       </c>
       <c r="O3">
-        <v>24.53951210500411</v>
+        <v>16.0182191044185</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.2592504793105</v>
+        <v>19.43475872647172</v>
       </c>
       <c r="C4">
-        <v>12.78843804579663</v>
+        <v>10.75760758752879</v>
       </c>
       <c r="D4">
-        <v>4.161263226942015</v>
+        <v>3.855288922466746</v>
       </c>
       <c r="E4">
-        <v>6.150506427851264</v>
+        <v>7.072585333772051</v>
       </c>
       <c r="F4">
-        <v>30.25121481690247</v>
+        <v>19.65592866056464</v>
       </c>
       <c r="G4">
-        <v>2.089733289247653</v>
+        <v>2.07917606747004</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.086709181505457</v>
+        <v>6.770172387530366</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.73305034641827</v>
+        <v>11.97765847268666</v>
       </c>
       <c r="O4">
-        <v>23.98136777696124</v>
+        <v>15.82219719566712</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.80019802552116</v>
+        <v>19.02632516473962</v>
       </c>
       <c r="C5">
-        <v>12.54163892012351</v>
+        <v>10.63808269789835</v>
       </c>
       <c r="D5">
-        <v>4.188431234784673</v>
+        <v>3.835129279665808</v>
       </c>
       <c r="E5">
-        <v>6.161273739255942</v>
+        <v>7.081052387884264</v>
       </c>
       <c r="F5">
-        <v>29.89567500003139</v>
+        <v>19.48085193187442</v>
       </c>
       <c r="G5">
-        <v>2.092448324010999</v>
+        <v>2.080726019052707</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.020251054245074</v>
+        <v>6.705579287195691</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.80591810512199</v>
+        <v>12.02275633114964</v>
       </c>
       <c r="O5">
-        <v>23.7574712337407</v>
+        <v>15.74577879163595</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.72330831382727</v>
+        <v>18.9576811691319</v>
       </c>
       <c r="C6">
-        <v>12.50023706100942</v>
+        <v>10.61809406075977</v>
       </c>
       <c r="D6">
-        <v>4.192957192525633</v>
+        <v>3.831767766546687</v>
       </c>
       <c r="E6">
-        <v>6.163102477201126</v>
+        <v>7.082531434841336</v>
       </c>
       <c r="F6">
-        <v>29.83676550383377</v>
+        <v>19.45193328737468</v>
       </c>
       <c r="G6">
-        <v>2.092901623653844</v>
+        <v>2.080985153458071</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.009234297464882</v>
+        <v>6.69484656837702</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.81806220821597</v>
+        <v>12.03029690708969</v>
       </c>
       <c r="O6">
-        <v>23.72051217704205</v>
+        <v>15.73329843070093</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.25310419637369</v>
+        <v>19.42930562913705</v>
       </c>
       <c r="C7">
-        <v>12.78513783532612</v>
+        <v>10.75600520465984</v>
       </c>
       <c r="D7">
-        <v>4.161628649789484</v>
+        <v>3.855017992941127</v>
       </c>
       <c r="E7">
-        <v>6.150648888552197</v>
+        <v>7.072694594138512</v>
       </c>
       <c r="F7">
-        <v>30.24641157292189</v>
+        <v>19.65355742661057</v>
       </c>
       <c r="G7">
-        <v>2.089769741016071</v>
+        <v>2.079196852708349</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.085811706876556</v>
+        <v>6.76930179959454</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.73403011654099</v>
+        <v>11.97826318586784</v>
       </c>
       <c r="O7">
-        <v>23.97833365711672</v>
+        <v>15.82115258141505</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.53549185510662</v>
+        <v>21.39131119310873</v>
       </c>
       <c r="C8">
-        <v>13.9813974972046</v>
+        <v>11.34319847990925</v>
       </c>
       <c r="D8">
-        <v>4.025378753092435</v>
+        <v>3.955465643772565</v>
       </c>
       <c r="E8">
-        <v>6.101781311381429</v>
+        <v>7.040227254924712</v>
       </c>
       <c r="F8">
-        <v>32.07013851954914</v>
+        <v>20.56386559485043</v>
       </c>
       <c r="G8">
-        <v>2.076292107415533</v>
+        <v>2.07155722163253</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.425937086028989</v>
+        <v>7.096173488977938</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.36933287222818</v>
+        <v>11.75621455280747</v>
       </c>
       <c r="O8">
-        <v>25.14685558134488</v>
+        <v>16.23923001743621</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.83026520088239</v>
+        <v>24.81636543032519</v>
       </c>
       <c r="C9">
-        <v>16.11227228899595</v>
+        <v>12.41151952566171</v>
       </c>
       <c r="D9">
-        <v>3.76389980797792</v>
+        <v>4.14371012500299</v>
       </c>
       <c r="E9">
-        <v>6.029438467976848</v>
+        <v>7.018970945441723</v>
       </c>
       <c r="F9">
-        <v>35.68563719994962</v>
+        <v>22.40842242983617</v>
       </c>
       <c r="G9">
-        <v>2.05091925642623</v>
+        <v>2.057429648049061</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.096908512207758</v>
+        <v>7.725574912830094</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.67257560690888</v>
+        <v>11.34794850622717</v>
       </c>
       <c r="O9">
-        <v>27.54151568521966</v>
+        <v>17.16777974661625</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.73015045589585</v>
+        <v>27.08094344152789</v>
       </c>
       <c r="C10">
-        <v>17.5523684350199</v>
+        <v>13.14137509648309</v>
       </c>
       <c r="D10">
-        <v>3.573844604842395</v>
+        <v>4.275876714397206</v>
       </c>
       <c r="E10">
-        <v>5.992299648511621</v>
+        <v>7.032113171850601</v>
       </c>
       <c r="F10">
-        <v>38.35686715218302</v>
+        <v>23.78846921568389</v>
       </c>
       <c r="G10">
-        <v>2.032734060101172</v>
+        <v>2.047518590025995</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.589865250969181</v>
+        <v>8.176820548707626</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.16825186205923</v>
+        <v>11.06465550291563</v>
       </c>
       <c r="O10">
-        <v>29.36060727559305</v>
+        <v>17.91507079059406</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.99721631324878</v>
+        <v>28.05777281484684</v>
       </c>
       <c r="C11">
-        <v>18.18187398135448</v>
+        <v>13.46078909524704</v>
       </c>
       <c r="D11">
-        <v>3.487518428121553</v>
+        <v>4.334517109537062</v>
       </c>
       <c r="E11">
-        <v>5.979304513952108</v>
+        <v>7.044971449597223</v>
       </c>
       <c r="F11">
-        <v>39.57530169239718</v>
+        <v>24.4197485722207</v>
       </c>
       <c r="G11">
-        <v>2.024512250600695</v>
+        <v>2.043099158902737</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.8138836281128</v>
+        <v>8.378999504384716</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.93960929037916</v>
+        <v>10.93945429234611</v>
       </c>
       <c r="O11">
-        <v>30.20150577785071</v>
+        <v>18.26884205365873</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.4698506040122</v>
+        <v>28.42011178647749</v>
       </c>
       <c r="C12">
-        <v>18.41673045297665</v>
+        <v>13.57988976798719</v>
       </c>
       <c r="D12">
-        <v>3.454823405550352</v>
+        <v>4.356497926287402</v>
       </c>
       <c r="E12">
-        <v>5.974984179899804</v>
+        <v>7.050882608479394</v>
       </c>
       <c r="F12">
-        <v>40.03729290537946</v>
+        <v>24.65917408564208</v>
       </c>
       <c r="G12">
-        <v>2.021401584855481</v>
+        <v>2.041437359805064</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.898680391073315</v>
+        <v>8.455070314937709</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.85306488880723</v>
+        <v>10.89258022340151</v>
       </c>
       <c r="O12">
-        <v>30.52197004261811</v>
+        <v>18.40476666772541</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.36837398714158</v>
+        <v>28.34241034718016</v>
       </c>
       <c r="C13">
-        <v>18.36630384476524</v>
+        <v>13.55432235537285</v>
       </c>
       <c r="D13">
-        <v>3.461865455976396</v>
+        <v>4.351774149494555</v>
       </c>
       <c r="E13">
-        <v>5.975887246324953</v>
+        <v>7.049562347738722</v>
       </c>
       <c r="F13">
-        <v>39.93776512294722</v>
+        <v>24.60759461151554</v>
       </c>
       <c r="G13">
-        <v>2.022071478426504</v>
+        <v>2.041794753688477</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.880419245352051</v>
+        <v>8.438709513114068</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.87170332284181</v>
+        <v>10.9026513370376</v>
       </c>
       <c r="O13">
-        <v>30.45285930669541</v>
+        <v>18.37540614348119</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.03624206633991</v>
+        <v>28.08773365927701</v>
       </c>
       <c r="C14">
-        <v>18.20126539101146</v>
+        <v>13.47062495339221</v>
       </c>
       <c r="D14">
-        <v>3.484828823653341</v>
+        <v>4.336330058475749</v>
       </c>
       <c r="E14">
-        <v>5.978936795986067</v>
+        <v>7.045436577535691</v>
       </c>
       <c r="F14">
-        <v>39.61329692134964</v>
+        <v>24.43943938897961</v>
       </c>
       <c r="G14">
-        <v>2.024256307127982</v>
+        <v>2.042962212787675</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.82086053892718</v>
+        <v>8.385267939862736</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.93248891512393</v>
+        <v>10.93558711134151</v>
       </c>
       <c r="O14">
-        <v>30.22782890183661</v>
+        <v>18.2799855376314</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.83187729984803</v>
+        <v>27.9307548234023</v>
       </c>
       <c r="C15">
-        <v>18.09972079826219</v>
+        <v>13.41911528138439</v>
       </c>
       <c r="D15">
-        <v>3.498893193209295</v>
+        <v>4.326840468441245</v>
       </c>
       <c r="E15">
-        <v>5.980884211029965</v>
+        <v>7.043046695219202</v>
       </c>
       <c r="F15">
-        <v>39.41463406121682</v>
+        <v>24.33648484560647</v>
       </c>
       <c r="G15">
-        <v>2.025594791939112</v>
+        <v>2.043678811223616</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.784374921987929</v>
+        <v>8.352468449456586</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.96972447534295</v>
+        <v>10.95583146619193</v>
       </c>
       <c r="O15">
-        <v>30.09026072575694</v>
+        <v>18.22179202131621</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.64632229482047</v>
+        <v>27.0160409037248</v>
       </c>
       <c r="C16">
-        <v>17.51072654202655</v>
+        <v>13.12024321438821</v>
       </c>
       <c r="D16">
-        <v>3.579486770872303</v>
+        <v>4.272013556781125</v>
       </c>
       <c r="E16">
-        <v>5.993230694797342</v>
+        <v>7.031415788218618</v>
       </c>
       <c r="F16">
-        <v>38.27731375658537</v>
+        <v>23.74727220897664</v>
       </c>
       <c r="G16">
-        <v>2.033272020330286</v>
+        <v>2.047809114033613</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.575220024876144</v>
+        <v>8.163541347850725</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.18320357327845</v>
+        <v>11.07291226797488</v>
       </c>
       <c r="O16">
-        <v>29.30592961018131</v>
+        <v>17.89222662848594</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.90588880853901</v>
+        <v>26.44130552691635</v>
       </c>
       <c r="C17">
-        <v>17.14294526443794</v>
+        <v>12.93363400455424</v>
       </c>
       <c r="D17">
-        <v>3.628944327570523</v>
+        <v>4.237990519592243</v>
       </c>
       <c r="E17">
-        <v>6.001830712087084</v>
+        <v>7.026080053615519</v>
       </c>
       <c r="F17">
-        <v>37.58049897025573</v>
+        <v>23.3866024795068</v>
       </c>
       <c r="G17">
-        <v>2.037991689566731</v>
+        <v>2.05036501459483</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.446845386214465</v>
+        <v>8.046813082233035</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.31431351577864</v>
+        <v>11.14568320963501</v>
       </c>
       <c r="O17">
-        <v>28.82825114973447</v>
+        <v>17.69356798161472</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.47508506790523</v>
+        <v>26.1057059350941</v>
       </c>
       <c r="C18">
-        <v>16.92898662827109</v>
+        <v>12.82511712505801</v>
       </c>
       <c r="D18">
-        <v>3.657404710620825</v>
+        <v>4.218282438027822</v>
       </c>
       <c r="E18">
-        <v>6.007141630442836</v>
+        <v>7.023655461513484</v>
       </c>
       <c r="F18">
-        <v>37.18000411160781</v>
+        <v>23.17948903713129</v>
       </c>
       <c r="G18">
-        <v>2.040711396340246</v>
+        <v>2.051843562031407</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.372985101909951</v>
+        <v>7.97938485061418</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.38980228616686</v>
+        <v>11.18788388207393</v>
       </c>
       <c r="O18">
-        <v>28.55475218961218</v>
+        <v>17.58060761805227</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.32836733229064</v>
+        <v>25.99121116241549</v>
       </c>
       <c r="C19">
-        <v>16.85612375650197</v>
+        <v>12.78817324824352</v>
       </c>
       <c r="D19">
-        <v>3.66704401574388</v>
+        <v>4.211586134578913</v>
       </c>
       <c r="E19">
-        <v>6.009001256411953</v>
+        <v>7.022943610319469</v>
       </c>
       <c r="F19">
-        <v>37.04445199502429</v>
+        <v>23.10942578072109</v>
       </c>
       <c r="G19">
-        <v>2.041633243638357</v>
+        <v>2.052345657540212</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.347973700617141</v>
+        <v>7.956506657223909</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.41537704518606</v>
+        <v>11.20223128263095</v>
       </c>
       <c r="O19">
-        <v>28.4623625135243</v>
+        <v>17.54258589155379</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.98521688130226</v>
+        <v>26.50300661886151</v>
       </c>
       <c r="C20">
-        <v>17.18234566294526</v>
+        <v>12.95362177320977</v>
       </c>
       <c r="D20">
-        <v>3.623678246643444</v>
+        <v>4.241626797373998</v>
       </c>
       <c r="E20">
-        <v>6.000877234167831</v>
+        <v>7.026580980206666</v>
       </c>
       <c r="F20">
-        <v>37.65464504876601</v>
+        <v>23.42496281747221</v>
       </c>
       <c r="G20">
-        <v>2.037488778254606</v>
+        <v>2.050092066486854</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.460513483772074</v>
+        <v>8.059269293527917</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.30034911157433</v>
+        <v>11.13790088090274</v>
       </c>
       <c r="O20">
-        <v>28.87897100458435</v>
+        <v>17.71458091879234</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.13398927243138</v>
+        <v>28.16274283241885</v>
       </c>
       <c r="C21">
-        <v>18.24983543469293</v>
+        <v>13.49525952794897</v>
       </c>
       <c r="D21">
-        <v>3.478084248624</v>
+        <v>4.340872558633131</v>
       </c>
       <c r="E21">
-        <v>5.978024428926531</v>
+        <v>7.046619714505501</v>
       </c>
       <c r="F21">
-        <v>39.70858336086112</v>
+        <v>24.48882138137979</v>
       </c>
       <c r="G21">
-        <v>2.023614534290014</v>
+        <v>2.042618992016686</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.838355225782218</v>
+        <v>8.400978635097371</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.9146343026196</v>
+        <v>10.9258984172525</v>
       </c>
       <c r="O21">
-        <v>30.29386933211987</v>
+        <v>18.30795991830903</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.49668877201715</v>
+        <v>29.20343315127735</v>
       </c>
       <c r="C22">
-        <v>18.92705494497819</v>
+        <v>13.83842902756297</v>
       </c>
       <c r="D22">
-        <v>3.382890486502303</v>
+        <v>4.404418998802327</v>
       </c>
       <c r="E22">
-        <v>5.966611489592257</v>
+        <v>7.065814526591725</v>
       </c>
       <c r="F22">
-        <v>41.0545666709546</v>
+        <v>25.18625516795802</v>
       </c>
       <c r="G22">
-        <v>2.014560425431002</v>
+        <v>2.037802797466447</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.085109506578966</v>
+        <v>8.621435189967759</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.66272946290212</v>
+        <v>10.79047848303009</v>
       </c>
       <c r="O22">
-        <v>31.23055079218717</v>
+        <v>18.70717743604585</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.77308459541556</v>
+        <v>28.65199123977541</v>
       </c>
       <c r="C23">
-        <v>18.56742228283147</v>
+        <v>13.6562747019804</v>
       </c>
       <c r="D23">
-        <v>3.43370819963397</v>
+        <v>4.370627157171104</v>
       </c>
       <c r="E23">
-        <v>5.972366140097162</v>
+        <v>7.054994384214401</v>
       </c>
       <c r="F23">
-        <v>40.33578856648376</v>
+        <v>24.81386013837037</v>
       </c>
       <c r="G23">
-        <v>2.019393194860859</v>
+        <v>2.040367456226547</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.953425120656442</v>
+        <v>8.504048456569754</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.79718459141415</v>
+        <v>10.86246392015745</v>
       </c>
       <c r="O23">
-        <v>30.72947541083734</v>
+        <v>18.49307161498428</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.94936862648095</v>
+        <v>26.47512768692848</v>
       </c>
       <c r="C24">
-        <v>17.16454059203022</v>
+        <v>12.94458913943485</v>
       </c>
       <c r="D24">
-        <v>3.626058957217072</v>
+        <v>4.239983295597833</v>
       </c>
       <c r="E24">
-        <v>6.001307162450948</v>
+        <v>7.026352512502286</v>
       </c>
       <c r="F24">
-        <v>37.62112326194534</v>
+        <v>23.40761934982723</v>
       </c>
       <c r="G24">
-        <v>2.037716124481647</v>
+        <v>2.050215437819748</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.454334310970099</v>
+        <v>8.053638832357594</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.30666206456269</v>
+        <v>11.14141813956709</v>
       </c>
       <c r="O24">
-        <v>28.85603706213703</v>
+        <v>17.70507707059517</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.71427758128434</v>
+        <v>23.93444235283704</v>
       </c>
       <c r="C25">
-        <v>15.55832212129299</v>
+        <v>12.13191145390186</v>
       </c>
       <c r="D25">
-        <v>3.834171068867879</v>
+        <v>4.093807415806835</v>
       </c>
       <c r="E25">
-        <v>6.046329739022807</v>
+        <v>7.019883465306312</v>
       </c>
       <c r="F25">
-        <v>34.7045992135395</v>
+        <v>21.90431199746663</v>
       </c>
       <c r="G25">
-        <v>2.057688353809898</v>
+        <v>2.061165304966504</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.915264558406785</v>
+        <v>7.557005992703044</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.85945808712478</v>
+        <v>11.4554827594494</v>
       </c>
       <c r="O25">
-        <v>26.88314041863081</v>
+        <v>16.90504479381528</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.89412238184926</v>
+        <v>20.24418633586225</v>
       </c>
       <c r="C2">
-        <v>11.49686224495789</v>
+        <v>11.93123115463999</v>
       </c>
       <c r="D2">
-        <v>3.98212321737497</v>
+        <v>4.495292914557237</v>
       </c>
       <c r="E2">
-        <v>7.034194120250254</v>
+        <v>9.180789077133747</v>
       </c>
       <c r="F2">
-        <v>20.81500362395981</v>
+        <v>16.99395470298977</v>
       </c>
       <c r="G2">
-        <v>2.069546857272832</v>
+        <v>21.03020662979906</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.219968425549271</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.073974048789436</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.43979216894932</v>
       </c>
       <c r="L2">
-        <v>7.184128539079144</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.69788917919817</v>
+        <v>8.204838708045406</v>
       </c>
       <c r="O2">
-        <v>16.35989236196269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.00228046961074</v>
+      </c>
+      <c r="Q2">
+        <v>13.21285596291654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.40365515716801</v>
+        <v>18.91667820419857</v>
       </c>
       <c r="C3">
-        <v>11.04502035500594</v>
+        <v>11.49011601640553</v>
       </c>
       <c r="D3">
-        <v>3.904170323522174</v>
+        <v>4.30329094298001</v>
       </c>
       <c r="E3">
-        <v>7.054831493805463</v>
+        <v>9.047468634075754</v>
       </c>
       <c r="F3">
-        <v>20.0914831364878</v>
+        <v>16.45282226864557</v>
       </c>
       <c r="G3">
-        <v>2.075443495229644</v>
+        <v>20.2435486405987</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.025858868377546</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.044286338654659</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.50782200300191</v>
       </c>
       <c r="L3">
-        <v>6.92827810384834</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.86910640209475</v>
+        <v>7.904609166187232</v>
       </c>
       <c r="O3">
-        <v>16.0182191044185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.04260692017641</v>
+      </c>
+      <c r="Q3">
+        <v>13.00686391658489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.43475872647172</v>
+        <v>18.05156947789861</v>
       </c>
       <c r="C4">
-        <v>10.75760758752879</v>
+        <v>11.20910491492345</v>
       </c>
       <c r="D4">
-        <v>3.855288922466746</v>
+        <v>4.180208275120697</v>
       </c>
       <c r="E4">
-        <v>7.072585333772051</v>
+        <v>8.963974144742421</v>
       </c>
       <c r="F4">
-        <v>19.65592866056464</v>
+        <v>16.12385228080491</v>
       </c>
       <c r="G4">
-        <v>2.07917606747004</v>
+        <v>19.76295044783669</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.902376477244957</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.030337794623106</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.55766780941944</v>
       </c>
       <c r="L4">
-        <v>6.770172387530366</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.97765847268666</v>
+        <v>7.714181292756113</v>
       </c>
       <c r="O4">
-        <v>15.82219719566712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.07017580906789</v>
+      </c>
+      <c r="Q4">
+        <v>12.88794887273294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.02632516473962</v>
+        <v>17.68641614684381</v>
       </c>
       <c r="C5">
-        <v>10.63808269789835</v>
+        <v>11.09213917172381</v>
       </c>
       <c r="D5">
-        <v>3.835129279665808</v>
+        <v>4.128780603470917</v>
       </c>
       <c r="E5">
-        <v>7.081052387884264</v>
+        <v>8.929542898135457</v>
       </c>
       <c r="F5">
-        <v>19.48085193187442</v>
+        <v>15.99081469870907</v>
       </c>
       <c r="G5">
-        <v>2.080726019052707</v>
+        <v>19.5680086026936</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.850961227572622</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.02570522262425</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.57993286721161</v>
       </c>
       <c r="L5">
-        <v>6.705579287195691</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.02275633114964</v>
+        <v>7.635125547166857</v>
       </c>
       <c r="O5">
-        <v>15.74577879163595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.08210380186079</v>
+      </c>
+      <c r="Q5">
+        <v>12.84140000296162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.9576811691319</v>
+        <v>17.62501978538882</v>
       </c>
       <c r="C6">
-        <v>10.61809406075977</v>
+        <v>11.07257235631751</v>
       </c>
       <c r="D6">
-        <v>3.831767766546687</v>
+        <v>4.12016548522259</v>
       </c>
       <c r="E6">
-        <v>7.082531434841336</v>
+        <v>8.923801204286184</v>
       </c>
       <c r="F6">
-        <v>19.45193328737468</v>
+        <v>15.9687913142773</v>
       </c>
       <c r="G6">
-        <v>2.080985153458071</v>
+        <v>19.53570243979937</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.842357207814146</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.024998758135405</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.58374564591687</v>
       </c>
       <c r="L6">
-        <v>6.69484656837702</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.03029690708969</v>
+        <v>7.621912911936509</v>
       </c>
       <c r="O6">
-        <v>15.73329843070093</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.08412595913662</v>
+      </c>
+      <c r="Q6">
+        <v>12.83378605814486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.42930562913705</v>
+        <v>18.04669601628171</v>
       </c>
       <c r="C7">
-        <v>10.75600520465984</v>
+        <v>11.20753725187305</v>
       </c>
       <c r="D7">
-        <v>3.855017992941127</v>
+        <v>4.179519796998429</v>
       </c>
       <c r="E7">
-        <v>7.072694594138512</v>
+        <v>8.963511432649504</v>
       </c>
       <c r="F7">
-        <v>19.65355742661057</v>
+        <v>16.12205369752179</v>
       </c>
       <c r="G7">
-        <v>2.079196852708349</v>
+        <v>19.76031731833604</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.901687526198018</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.030271093707784</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.55796027984626</v>
       </c>
       <c r="L7">
-        <v>6.76930179959454</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.97826318586784</v>
+        <v>7.713120903700895</v>
       </c>
       <c r="O7">
-        <v>15.82115258141505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.07033388272108</v>
+      </c>
+      <c r="Q7">
+        <v>12.88731335938074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.39131119310873</v>
+        <v>19.79681760095215</v>
       </c>
       <c r="C8">
-        <v>11.34319847990925</v>
+        <v>11.78130294441116</v>
       </c>
       <c r="D8">
-        <v>3.955465643772565</v>
+        <v>4.430187816528378</v>
       </c>
       <c r="E8">
-        <v>7.040227254924712</v>
+        <v>9.135162167878006</v>
       </c>
       <c r="F8">
-        <v>20.56386559485043</v>
+        <v>16.80680388556364</v>
       </c>
       <c r="G8">
-        <v>2.07155722163253</v>
+        <v>20.75863973678865</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.153922796339719</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.06283498287493</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.46152523506535</v>
       </c>
       <c r="L8">
-        <v>7.096173488977938</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.75621455280747</v>
+        <v>8.102625191414436</v>
       </c>
       <c r="O8">
-        <v>16.23923001743621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.01559431458987</v>
+      </c>
+      <c r="Q8">
+        <v>13.14026627933479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.81636543032519</v>
+        <v>22.83387744807243</v>
       </c>
       <c r="C9">
-        <v>12.41151952566171</v>
+        <v>12.82187460562061</v>
       </c>
       <c r="D9">
-        <v>4.14371012500299</v>
+        <v>4.879269490855593</v>
       </c>
       <c r="E9">
-        <v>7.018970945441723</v>
+        <v>9.458629807454882</v>
       </c>
       <c r="F9">
-        <v>22.40842242983617</v>
+        <v>18.16762132623739</v>
       </c>
       <c r="G9">
-        <v>2.057429648049061</v>
+        <v>22.72342689742154</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.615124871547621</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.161695369048868</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.34008472059229</v>
       </c>
       <c r="L9">
-        <v>7.725574912830094</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.34794850622717</v>
+        <v>8.815285175473102</v>
       </c>
       <c r="O9">
-        <v>17.16777974661625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.93113745113339</v>
+      </c>
+      <c r="Q9">
+        <v>13.69572154779345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.08094344152789</v>
+        <v>24.77423697162802</v>
       </c>
       <c r="C10">
-        <v>13.14137509648309</v>
+        <v>13.59257802842463</v>
       </c>
       <c r="D10">
-        <v>4.275876714397206</v>
+        <v>5.199152329190656</v>
       </c>
       <c r="E10">
-        <v>7.032113171850601</v>
+        <v>9.574967788364477</v>
       </c>
       <c r="F10">
-        <v>23.78846921568389</v>
+        <v>19.08349309561396</v>
       </c>
       <c r="G10">
-        <v>2.047518590025995</v>
+        <v>24.00348580229739</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.922243246912461</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.22956217859184</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.23374256671272</v>
       </c>
       <c r="L10">
-        <v>8.176820548707626</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.06465550291563</v>
+        <v>9.17308730159673</v>
       </c>
       <c r="O10">
-        <v>17.91507079059406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.90423144909174</v>
+      </c>
+      <c r="Q10">
+        <v>14.0705613647457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.05777281484684</v>
+        <v>25.15405398982312</v>
       </c>
       <c r="C11">
-        <v>13.46078909524704</v>
+        <v>14.47553852880442</v>
       </c>
       <c r="D11">
-        <v>4.334517109537062</v>
+        <v>5.487898679933801</v>
       </c>
       <c r="E11">
-        <v>7.044971449597223</v>
+        <v>8.821450582690369</v>
       </c>
       <c r="F11">
-        <v>24.4197485722207</v>
+        <v>18.763616142755</v>
       </c>
       <c r="G11">
-        <v>2.043099158902737</v>
+        <v>23.25897876734963</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.580089248318475</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.025340005907699</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.64846926535743</v>
       </c>
       <c r="L11">
-        <v>8.378999504384716</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.93945429234611</v>
+        <v>8.22730272290263</v>
       </c>
       <c r="O11">
-        <v>18.26884205365873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.08410799149189</v>
+      </c>
+      <c r="Q11">
+        <v>13.65362984741766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.42011178647749</v>
+        <v>25.07780007799437</v>
       </c>
       <c r="C12">
-        <v>13.57988976798719</v>
+        <v>15.07920657555477</v>
       </c>
       <c r="D12">
-        <v>4.356497926287402</v>
+        <v>5.669091122029787</v>
       </c>
       <c r="E12">
-        <v>7.050882608479394</v>
+        <v>8.432014651978907</v>
       </c>
       <c r="F12">
-        <v>24.65917408564208</v>
+        <v>18.2865340334942</v>
       </c>
       <c r="G12">
-        <v>2.041437359805064</v>
+        <v>22.33922845178154</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.652842802969342</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.832101109412819</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.17614365194861</v>
       </c>
       <c r="L12">
-        <v>8.455070314937709</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.89258022340151</v>
+        <v>7.394607073994002</v>
       </c>
       <c r="O12">
-        <v>18.40476666772541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.25517164405979</v>
+      </c>
+      <c r="Q12">
+        <v>13.20849192082135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.34241034718016</v>
+        <v>24.64429853379443</v>
       </c>
       <c r="C13">
-        <v>13.55432235537285</v>
+        <v>15.51457067856728</v>
       </c>
       <c r="D13">
-        <v>4.351774149494555</v>
+        <v>5.782354041417205</v>
       </c>
       <c r="E13">
-        <v>7.049562347738722</v>
+        <v>8.328315071323997</v>
       </c>
       <c r="F13">
-        <v>24.60759461151554</v>
+        <v>17.64447566164214</v>
       </c>
       <c r="G13">
-        <v>2.041794753688477</v>
+        <v>21.19847285950131</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.858622696626733</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.634129674028001</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.76546635698229</v>
       </c>
       <c r="L13">
-        <v>8.438709513114068</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.9026513370376</v>
+        <v>6.603312760689079</v>
       </c>
       <c r="O13">
-        <v>18.37540614348119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.42398201915605</v>
+      </c>
+      <c r="Q13">
+        <v>12.7066652231126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.08773365927701</v>
+        <v>24.17288026128021</v>
       </c>
       <c r="C14">
-        <v>13.47062495339221</v>
+        <v>15.74802608842923</v>
       </c>
       <c r="D14">
-        <v>4.336330058475749</v>
+        <v>5.832185986751352</v>
       </c>
       <c r="E14">
-        <v>7.045436577535691</v>
+        <v>8.430026053088122</v>
       </c>
       <c r="F14">
-        <v>24.43943938897961</v>
+        <v>17.11365370713406</v>
       </c>
       <c r="G14">
-        <v>2.042962212787675</v>
+        <v>20.28622234362302</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.749595753185448</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.493663359983207</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10.51188506801643</v>
       </c>
       <c r="L14">
-        <v>8.385267939862736</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.93558711134151</v>
+        <v>6.089138623744819</v>
       </c>
       <c r="O14">
-        <v>18.2799855376314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.54063454681341</v>
+      </c>
+      <c r="Q14">
+        <v>12.32774566254888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.9307548234023</v>
+        <v>23.97964292481187</v>
       </c>
       <c r="C15">
-        <v>13.41911528138439</v>
+        <v>15.76753577195601</v>
       </c>
       <c r="D15">
-        <v>4.326840468441245</v>
+        <v>5.829604548731984</v>
       </c>
       <c r="E15">
-        <v>7.043046695219202</v>
+        <v>8.474295806462928</v>
       </c>
       <c r="F15">
-        <v>24.33648484560647</v>
+        <v>16.94967235085363</v>
       </c>
       <c r="G15">
-        <v>2.043678811223616</v>
+        <v>20.01679870637786</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.953151107169648</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.459477172048675</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10.46444916067508</v>
       </c>
       <c r="L15">
-        <v>8.352468449456586</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.95583146619193</v>
+        <v>5.968380667467573</v>
       </c>
       <c r="O15">
-        <v>18.22179202131621</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.56613784677665</v>
+      </c>
+      <c r="Q15">
+        <v>12.2250662173324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.0160409037248</v>
+        <v>23.24117790300573</v>
       </c>
       <c r="C16">
-        <v>13.12024321438821</v>
+        <v>15.38105780332673</v>
       </c>
       <c r="D16">
-        <v>4.272013556781125</v>
+        <v>5.681226091208487</v>
       </c>
       <c r="E16">
-        <v>7.031415788218618</v>
+        <v>8.432151858473572</v>
       </c>
       <c r="F16">
-        <v>23.74727220897664</v>
+        <v>16.65191758786474</v>
       </c>
       <c r="G16">
-        <v>2.047809114033613</v>
+        <v>19.62686937928659</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.683092017706389</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.467278556122325</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10.59874540331951</v>
       </c>
       <c r="L16">
-        <v>8.163541347850725</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.07291226797488</v>
+        <v>5.94758702712256</v>
       </c>
       <c r="O16">
-        <v>17.89222662848594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.52928801931448</v>
+      </c>
+      <c r="Q16">
+        <v>12.14844621499859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.44130552691635</v>
+        <v>22.92611935709686</v>
       </c>
       <c r="C17">
-        <v>12.93363400455424</v>
+        <v>14.94958710813916</v>
       </c>
       <c r="D17">
-        <v>4.237990519592243</v>
+        <v>5.537500503184748</v>
       </c>
       <c r="E17">
-        <v>7.026080053615519</v>
+        <v>8.31890747998734</v>
       </c>
       <c r="F17">
-        <v>23.3866024795068</v>
+        <v>16.71721947281046</v>
       </c>
       <c r="G17">
-        <v>2.05036501459483</v>
+        <v>19.8354375161315</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.95421775168904</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.549115041501901</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10.83348361959099</v>
       </c>
       <c r="L17">
-        <v>8.046813082233035</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.14568320963501</v>
+        <v>6.19731048585864</v>
       </c>
       <c r="O17">
-        <v>17.69356798161472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.44071453524887</v>
+      </c>
+      <c r="Q17">
+        <v>12.29682045294506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.1057059350941</v>
+        <v>22.9519315582584</v>
       </c>
       <c r="C18">
-        <v>12.82511712505801</v>
+        <v>14.4394749584477</v>
       </c>
       <c r="D18">
-        <v>4.218282438027822</v>
+        <v>5.38389249378278</v>
       </c>
       <c r="E18">
-        <v>7.023655461513484</v>
+        <v>8.288864898605514</v>
       </c>
       <c r="F18">
-        <v>23.17948903713129</v>
+        <v>17.0966762440337</v>
       </c>
       <c r="G18">
-        <v>2.051843562031407</v>
+        <v>20.57437294574521</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.8010460824766</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.701229875322249</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.18534117288581</v>
       </c>
       <c r="L18">
-        <v>7.97938485061418</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.18788388207393</v>
+        <v>6.763988067748065</v>
       </c>
       <c r="O18">
-        <v>17.58060761805227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.30237658028168</v>
+      </c>
+      <c r="Q18">
+        <v>12.64946801683285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.99121116241549</v>
+        <v>23.24982216783235</v>
       </c>
       <c r="C19">
-        <v>12.78817324824352</v>
+        <v>13.91737811200595</v>
       </c>
       <c r="D19">
-        <v>4.211586134578913</v>
+        <v>5.236684942806235</v>
       </c>
       <c r="E19">
-        <v>7.022943610319469</v>
+        <v>8.559208314919427</v>
       </c>
       <c r="F19">
-        <v>23.10942578072109</v>
+        <v>17.68990108976747</v>
       </c>
       <c r="G19">
-        <v>2.052345657540212</v>
+        <v>21.66620592836768</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.5789617544464</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.897138986599981</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.61658107420667</v>
       </c>
       <c r="L19">
-        <v>7.956506657223909</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.20223128263095</v>
+        <v>7.601702099339248</v>
       </c>
       <c r="O19">
-        <v>17.54258589155379</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.14058644946989</v>
+      </c>
+      <c r="Q19">
+        <v>13.13470130920374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.50300661886151</v>
+        <v>24.27771630482497</v>
       </c>
       <c r="C20">
-        <v>12.95362177320977</v>
+        <v>13.39721943180449</v>
       </c>
       <c r="D20">
-        <v>4.241626797373998</v>
+        <v>5.117921280295119</v>
       </c>
       <c r="E20">
-        <v>7.026580980206666</v>
+        <v>9.539517497481032</v>
       </c>
       <c r="F20">
-        <v>23.42496281747221</v>
+        <v>18.83910262121597</v>
       </c>
       <c r="G20">
-        <v>2.050092066486854</v>
+        <v>23.66071591898768</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.841097730722268</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.208964698843905</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.25567810175294</v>
       </c>
       <c r="L20">
-        <v>8.059269293527917</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.13790088090274</v>
+        <v>9.074881440946115</v>
       </c>
       <c r="O20">
-        <v>17.71458091879234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.91092644434924</v>
+      </c>
+      <c r="Q20">
+        <v>13.96665292098554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.16274283241885</v>
+        <v>25.77497171471873</v>
       </c>
       <c r="C21">
-        <v>13.49525952794897</v>
+        <v>13.87326663463211</v>
       </c>
       <c r="D21">
-        <v>4.340872558633131</v>
+        <v>5.327678278703048</v>
       </c>
       <c r="E21">
-        <v>7.046619714505501</v>
+        <v>9.801876912953681</v>
       </c>
       <c r="F21">
-        <v>24.48882138137979</v>
+        <v>19.67170521817719</v>
       </c>
       <c r="G21">
-        <v>2.042618992016686</v>
+        <v>24.87492767931277</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.09122033673041</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.311043830711844</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.28831516336427</v>
       </c>
       <c r="L21">
-        <v>8.400978635097371</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.9258984172525</v>
+        <v>9.542111029083282</v>
       </c>
       <c r="O21">
-        <v>18.30795991830903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.86401991959064</v>
+      </c>
+      <c r="Q21">
+        <v>14.37092690010285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.20343315127735</v>
+        <v>26.68363349928209</v>
       </c>
       <c r="C22">
-        <v>13.83842902756297</v>
+        <v>14.2052783809813</v>
       </c>
       <c r="D22">
-        <v>4.404418998802327</v>
+        <v>5.468414190662786</v>
       </c>
       <c r="E22">
-        <v>7.065814526591725</v>
+        <v>9.913739580868327</v>
       </c>
       <c r="F22">
-        <v>25.18625516795802</v>
+        <v>20.16996166443757</v>
       </c>
       <c r="G22">
-        <v>2.037802797466447</v>
+        <v>25.58436354195743</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>3.244374659748719</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.368218272809971</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.28732854953038</v>
       </c>
       <c r="L22">
-        <v>8.621435189967759</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.79047848303009</v>
+        <v>9.772842307138404</v>
       </c>
       <c r="O22">
-        <v>18.70717743604585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.84658182759167</v>
+      </c>
+      <c r="Q22">
+        <v>14.6060486554233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.65199123977541</v>
+        <v>26.2025260563498</v>
       </c>
       <c r="C23">
-        <v>13.6562747019804</v>
+        <v>14.02910342228675</v>
       </c>
       <c r="D23">
-        <v>4.370627157171104</v>
+        <v>5.393781572619657</v>
       </c>
       <c r="E23">
-        <v>7.054994384214401</v>
+        <v>9.85417391566741</v>
       </c>
       <c r="F23">
-        <v>24.81386013837037</v>
+        <v>19.90426622403347</v>
       </c>
       <c r="G23">
-        <v>2.040367456226547</v>
+        <v>25.20622723738219</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>3.162921723262945</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.33728824082768</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.28691243928234</v>
       </c>
       <c r="L23">
-        <v>8.504048456569754</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.86246392015745</v>
+        <v>9.650341977637172</v>
       </c>
       <c r="O23">
-        <v>18.49307161498428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.85560913149893</v>
+      </c>
+      <c r="Q23">
+        <v>14.48002536277784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.47512768692848</v>
+        <v>24.29526352538299</v>
       </c>
       <c r="C24">
-        <v>12.94458913943485</v>
+        <v>13.33956848402281</v>
       </c>
       <c r="D24">
-        <v>4.239983295597833</v>
+        <v>5.100625507031094</v>
       </c>
       <c r="E24">
-        <v>7.026352512502286</v>
+        <v>9.625558564661665</v>
       </c>
       <c r="F24">
-        <v>23.40761934982723</v>
+        <v>18.89353956312301</v>
       </c>
       <c r="G24">
-        <v>2.050215437819748</v>
+        <v>23.76391243251399</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.847986344203244</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.229156084862884</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.30549972574967</v>
       </c>
       <c r="L24">
-        <v>8.053638832357594</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.14141813956709</v>
+        <v>9.172400765340427</v>
       </c>
       <c r="O24">
-        <v>17.70507707059517</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.89583429569935</v>
+      </c>
+      <c r="Q24">
+        <v>14.01464526226845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.93444235283704</v>
+        <v>22.05426594073755</v>
       </c>
       <c r="C25">
-        <v>12.13191145390186</v>
+        <v>12.54992556144655</v>
       </c>
       <c r="D25">
-        <v>4.093807415806835</v>
+        <v>4.762486624866673</v>
       </c>
       <c r="E25">
-        <v>7.019883465306312</v>
+        <v>9.372548624680663</v>
       </c>
       <c r="F25">
-        <v>21.90431199746663</v>
+        <v>17.79863098749359</v>
       </c>
       <c r="G25">
-        <v>2.061165304966504</v>
+        <v>22.1927256606142</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.49383750205293</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.131059924467294</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.36517811553251</v>
       </c>
       <c r="L25">
-        <v>7.557005992703044</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.4554827594494</v>
+        <v>8.628334602280225</v>
       </c>
       <c r="O25">
-        <v>16.90504479381528</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.9514467910145</v>
+      </c>
+      <c r="Q25">
+        <v>13.53919487439926</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.24418633586225</v>
+        <v>20.01104064559677</v>
       </c>
       <c r="C2">
-        <v>11.93123115463999</v>
+        <v>12.12534919855474</v>
       </c>
       <c r="D2">
-        <v>4.495292914557237</v>
+        <v>4.569069741699041</v>
       </c>
       <c r="E2">
-        <v>9.180789077133747</v>
+        <v>9.019656648606428</v>
       </c>
       <c r="F2">
-        <v>16.99395470298977</v>
+        <v>16.71846559784758</v>
       </c>
       <c r="G2">
-        <v>21.03020662979906</v>
+        <v>19.87874853409066</v>
       </c>
       <c r="H2">
-        <v>2.219968425549271</v>
+        <v>2.201139000641305</v>
       </c>
       <c r="J2">
-        <v>8.073974048789436</v>
+        <v>8.647838374646144</v>
       </c>
       <c r="K2">
-        <v>12.43979216894932</v>
+        <v>12.19204327313167</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.23306531945925</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.87434631382234</v>
       </c>
       <c r="N2">
-        <v>8.204838708045406</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.00228046961074</v>
+        <v>8.240430115338574</v>
       </c>
       <c r="Q2">
-        <v>13.21285596291654</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.0672975981054</v>
+      </c>
+      <c r="S2">
+        <v>13.01692292314489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.91667820419857</v>
+        <v>18.7303064463792</v>
       </c>
       <c r="C3">
-        <v>11.49011601640553</v>
+        <v>11.59267495667941</v>
       </c>
       <c r="D3">
-        <v>4.30329094298001</v>
+        <v>4.360795858904101</v>
       </c>
       <c r="E3">
-        <v>9.047468634075754</v>
+        <v>8.904675621834459</v>
       </c>
       <c r="F3">
-        <v>16.45282226864557</v>
+        <v>16.22412242014321</v>
       </c>
       <c r="G3">
-        <v>20.2435486405987</v>
+        <v>19.14608969499819</v>
       </c>
       <c r="H3">
-        <v>2.025858868377546</v>
+        <v>2.02149115985427</v>
       </c>
       <c r="J3">
-        <v>8.044286338654659</v>
+        <v>8.605660541791615</v>
       </c>
       <c r="K3">
-        <v>12.50782200300191</v>
+        <v>12.28188803462537</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.3941174691039</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.834657029798031</v>
       </c>
       <c r="N3">
-        <v>7.904609166187232</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.04260692017641</v>
+        <v>7.943442609032095</v>
       </c>
       <c r="Q3">
-        <v>13.00686391658489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.08089438743724</v>
+      </c>
+      <c r="S3">
+        <v>12.84294245875672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.05156947789861</v>
+        <v>17.89554101873389</v>
       </c>
       <c r="C4">
-        <v>11.20910491492345</v>
+        <v>11.25295991348403</v>
       </c>
       <c r="D4">
-        <v>4.180208275120697</v>
+        <v>4.227241445020646</v>
       </c>
       <c r="E4">
-        <v>8.963974144742421</v>
+        <v>8.832545362173795</v>
       </c>
       <c r="F4">
-        <v>16.12385228080491</v>
+        <v>15.92312325406992</v>
       </c>
       <c r="G4">
-        <v>19.76295044783669</v>
+        <v>18.6997420691725</v>
       </c>
       <c r="H4">
-        <v>1.902376477244957</v>
+        <v>1.907153355986552</v>
       </c>
       <c r="J4">
-        <v>8.030337794623106</v>
+        <v>8.581738863658574</v>
       </c>
       <c r="K4">
-        <v>12.55766780941944</v>
+        <v>12.34335677056186</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.49708639154704</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.837373551748874</v>
       </c>
       <c r="N4">
-        <v>7.714181292756113</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.07017580906789</v>
+        <v>7.755347128533812</v>
       </c>
       <c r="Q4">
-        <v>12.88794887273294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.09229428096284</v>
+      </c>
+      <c r="S4">
+        <v>12.74245546372758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.68641614684381</v>
+        <v>17.54317102402373</v>
       </c>
       <c r="C5">
-        <v>11.09213917172381</v>
+        <v>11.11149031985287</v>
       </c>
       <c r="D5">
-        <v>4.128780603470917</v>
+        <v>4.17143105109377</v>
       </c>
       <c r="E5">
-        <v>8.929542898135457</v>
+        <v>8.802767958508717</v>
       </c>
       <c r="F5">
-        <v>15.99081469870907</v>
+        <v>15.8012548495177</v>
       </c>
       <c r="G5">
-        <v>19.5680086026936</v>
+        <v>18.51898513112432</v>
       </c>
       <c r="H5">
-        <v>1.850961227572622</v>
+        <v>1.859533235332137</v>
       </c>
       <c r="J5">
-        <v>8.02570522262425</v>
+        <v>8.57248084711094</v>
       </c>
       <c r="K5">
-        <v>12.57993286721161</v>
+        <v>12.3699310225563</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.5400855440338</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.845210899703076</v>
       </c>
       <c r="N5">
-        <v>7.635125547166857</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.08210380186079</v>
+        <v>7.677333142622183</v>
       </c>
       <c r="Q5">
-        <v>12.84140000296162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.09769637737268</v>
+      </c>
+      <c r="S5">
+        <v>12.70309419562574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.62501978538882</v>
+        <v>17.48392289323731</v>
       </c>
       <c r="C6">
-        <v>11.07257235631751</v>
+        <v>11.08782099181452</v>
       </c>
       <c r="D6">
-        <v>4.12016548522259</v>
+        <v>4.162081400700472</v>
       </c>
       <c r="E6">
-        <v>8.923801204286184</v>
+        <v>8.797800312377095</v>
       </c>
       <c r="F6">
-        <v>15.9687913142773</v>
+        <v>15.78107108907255</v>
       </c>
       <c r="G6">
-        <v>19.53570243979937</v>
+        <v>18.48904658868386</v>
       </c>
       <c r="H6">
-        <v>1.842357207814146</v>
+        <v>1.851563595902688</v>
       </c>
       <c r="J6">
-        <v>8.024998758135405</v>
+        <v>8.570972972189079</v>
       </c>
       <c r="K6">
-        <v>12.58374564591687</v>
+        <v>12.3744340761601</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.54728858963666</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.846915061040685</v>
       </c>
       <c r="N6">
-        <v>7.621912911936509</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.08412595913662</v>
+        <v>7.664299163363214</v>
       </c>
       <c r="Q6">
-        <v>12.83378605814486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.0986387760644</v>
+      </c>
+      <c r="S6">
+        <v>12.69665394103312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.04669601628171</v>
+        <v>17.88528851938883</v>
       </c>
       <c r="C7">
-        <v>11.20753725187305</v>
+        <v>11.24434120464341</v>
       </c>
       <c r="D7">
-        <v>4.179519796998429</v>
+        <v>4.229236180425774</v>
       </c>
       <c r="E7">
-        <v>8.963511432649504</v>
+        <v>8.832823652625379</v>
       </c>
       <c r="F7">
-        <v>16.12205369752179</v>
+        <v>15.90815977131033</v>
       </c>
       <c r="G7">
-        <v>19.76031731833604</v>
+        <v>18.79922897032979</v>
       </c>
       <c r="H7">
-        <v>1.901687526198018</v>
+        <v>1.906022221094426</v>
       </c>
       <c r="J7">
-        <v>8.030271093707784</v>
+        <v>8.540636568432275</v>
       </c>
       <c r="K7">
-        <v>12.55796027984626</v>
+        <v>12.33883440026803</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.49329502138032</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.834429241707197</v>
       </c>
       <c r="N7">
-        <v>7.713120903700895</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.07033388272108</v>
+        <v>7.753505623557938</v>
       </c>
       <c r="Q7">
-        <v>12.88731335938074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.0937807350712</v>
+      </c>
+      <c r="S7">
+        <v>12.73199019730087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.79681760095215</v>
+        <v>19.56246521714534</v>
       </c>
       <c r="C8">
-        <v>11.78130294441116</v>
+        <v>11.92301634545139</v>
       </c>
       <c r="D8">
-        <v>4.430187816528378</v>
+        <v>4.507166011867181</v>
       </c>
       <c r="E8">
-        <v>9.135162167878006</v>
+        <v>8.982667439054689</v>
       </c>
       <c r="F8">
-        <v>16.80680388556364</v>
+        <v>16.50491808330049</v>
       </c>
       <c r="G8">
-        <v>20.75863973678865</v>
+        <v>19.94928436047301</v>
       </c>
       <c r="H8">
-        <v>2.153922796339719</v>
+        <v>2.138500320634189</v>
       </c>
       <c r="J8">
-        <v>8.06283498287493</v>
+        <v>8.499188228364424</v>
       </c>
       <c r="K8">
-        <v>12.46152523506535</v>
+        <v>12.20555727070862</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.27457906713682</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.843093208246967</v>
       </c>
       <c r="N8">
-        <v>8.102625191414436</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.01559431458987</v>
+        <v>8.136774736877264</v>
       </c>
       <c r="Q8">
-        <v>13.14026627933479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.07633781510498</v>
+      </c>
+      <c r="S8">
+        <v>12.92321174906786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.83387744807243</v>
+        <v>22.48930174705759</v>
       </c>
       <c r="C9">
-        <v>12.82187460562061</v>
+        <v>13.17291328226536</v>
       </c>
       <c r="D9">
-        <v>4.879269490855593</v>
+        <v>4.995566450937368</v>
       </c>
       <c r="E9">
-        <v>9.458629807454882</v>
+        <v>9.261805683926625</v>
       </c>
       <c r="F9">
-        <v>18.16762132623739</v>
+        <v>17.73812210510055</v>
       </c>
       <c r="G9">
-        <v>22.72342689742154</v>
+        <v>21.84208156213285</v>
       </c>
       <c r="H9">
-        <v>2.615124871547621</v>
+        <v>2.564752657918446</v>
       </c>
       <c r="J9">
-        <v>8.161695369048868</v>
+        <v>8.580998200566095</v>
       </c>
       <c r="K9">
-        <v>12.34008472059229</v>
+        <v>12.01472673807243</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.89351201900613</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.086096310570741</v>
       </c>
       <c r="N9">
-        <v>8.815285175473102</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.93113745113339</v>
+        <v>8.842614344667801</v>
       </c>
       <c r="Q9">
-        <v>13.69572154779345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.06170919013617</v>
+      </c>
+      <c r="S9">
+        <v>13.38515374538493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.77423697162802</v>
+        <v>24.33594012729261</v>
       </c>
       <c r="C10">
-        <v>13.59257802842463</v>
+        <v>14.0447942791167</v>
       </c>
       <c r="D10">
-        <v>5.199152329190656</v>
+        <v>5.353976147924648</v>
       </c>
       <c r="E10">
-        <v>9.574967788364477</v>
+        <v>9.356209785596544</v>
       </c>
       <c r="F10">
-        <v>19.08349309561396</v>
+        <v>18.49965834078525</v>
       </c>
       <c r="G10">
-        <v>24.00348580229739</v>
+        <v>23.57825366912256</v>
       </c>
       <c r="H10">
-        <v>2.922243246912461</v>
+        <v>2.845811541380665</v>
       </c>
       <c r="J10">
-        <v>8.22956217859184</v>
+        <v>8.405499311278598</v>
       </c>
       <c r="K10">
-        <v>12.23374256671272</v>
+        <v>11.82811161904963</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.5787502055891</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.313503624316731</v>
       </c>
       <c r="N10">
-        <v>9.17308730159673</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.90423144909174</v>
+        <v>9.191985757019189</v>
       </c>
       <c r="Q10">
-        <v>14.0705613647457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.09639349599852</v>
+      </c>
+      <c r="S10">
+        <v>13.63956428609597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.15405398982312</v>
+        <v>24.67298460569343</v>
       </c>
       <c r="C11">
-        <v>14.47553852880442</v>
+        <v>14.86426535810348</v>
       </c>
       <c r="D11">
-        <v>5.487898679933801</v>
+        <v>5.672952636041712</v>
       </c>
       <c r="E11">
-        <v>8.821450582690369</v>
+        <v>8.646670244500211</v>
       </c>
       <c r="F11">
-        <v>18.763616142755</v>
+        <v>18.05530115016855</v>
       </c>
       <c r="G11">
-        <v>23.25897876734963</v>
+        <v>23.97004342719379</v>
       </c>
       <c r="H11">
-        <v>3.580089248318475</v>
+        <v>3.509709567080454</v>
       </c>
       <c r="J11">
-        <v>8.025340005907699</v>
+        <v>7.788742559603479</v>
       </c>
       <c r="K11">
-        <v>11.64846926535743</v>
+        <v>11.23936570289781</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.12687645861424</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.947926886594272</v>
       </c>
       <c r="N11">
-        <v>8.22730272290263</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.08410799149189</v>
+        <v>8.227954426153989</v>
       </c>
       <c r="Q11">
-        <v>13.65362984741766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.31754530572178</v>
+      </c>
+      <c r="S11">
+        <v>13.13054168206217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.07780007799437</v>
+        <v>24.5947344536566</v>
       </c>
       <c r="C12">
-        <v>15.07920657555477</v>
+        <v>15.40864084820243</v>
       </c>
       <c r="D12">
-        <v>5.669091122029787</v>
+        <v>5.863599940473466</v>
       </c>
       <c r="E12">
-        <v>8.432014651978907</v>
+        <v>8.294561222685754</v>
       </c>
       <c r="F12">
-        <v>18.2865340334942</v>
+        <v>17.54722885067965</v>
       </c>
       <c r="G12">
-        <v>22.33922845178154</v>
+        <v>23.61929979951723</v>
       </c>
       <c r="H12">
-        <v>4.652842802969342</v>
+        <v>4.598101562072112</v>
       </c>
       <c r="J12">
-        <v>7.832101109412819</v>
+        <v>7.458075349079096</v>
       </c>
       <c r="K12">
-        <v>11.17614365194861</v>
+        <v>10.80459884843587</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.840499527310346</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.591984812007358</v>
       </c>
       <c r="N12">
-        <v>7.394607073994002</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.25517164405979</v>
+        <v>7.38292920639522</v>
       </c>
       <c r="Q12">
-        <v>13.20849192082135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.50342810906421</v>
+      </c>
+      <c r="S12">
+        <v>12.66819925217133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.64429853379443</v>
+        <v>24.20114173123188</v>
       </c>
       <c r="C13">
-        <v>15.51457067856728</v>
+        <v>15.80131661635421</v>
       </c>
       <c r="D13">
-        <v>5.782354041417205</v>
+        <v>5.964433845536377</v>
       </c>
       <c r="E13">
-        <v>8.328315071323997</v>
+        <v>8.226380631785482</v>
       </c>
       <c r="F13">
-        <v>17.64447566164214</v>
+        <v>16.97413217276098</v>
       </c>
       <c r="G13">
-        <v>21.19847285950131</v>
+        <v>22.43550523725695</v>
       </c>
       <c r="H13">
-        <v>5.858622696626733</v>
+        <v>5.818232871984059</v>
       </c>
       <c r="J13">
-        <v>7.634129674028001</v>
+        <v>7.368983982195286</v>
       </c>
       <c r="K13">
-        <v>10.76546635698229</v>
+        <v>10.47197025037009</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.654091761898393</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.236687108666036</v>
       </c>
       <c r="N13">
-        <v>6.603312760689079</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.42398201915605</v>
+        <v>6.584539317768429</v>
       </c>
       <c r="Q13">
-        <v>12.7066652231126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.66062750006058</v>
+      </c>
+      <c r="S13">
+        <v>12.22901185137404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.17288026128021</v>
+        <v>23.77672840716702</v>
       </c>
       <c r="C14">
-        <v>15.74802608842923</v>
+        <v>16.01221669284799</v>
       </c>
       <c r="D14">
-        <v>5.832185986751352</v>
+        <v>5.995506905504279</v>
       </c>
       <c r="E14">
-        <v>8.430026053088122</v>
+        <v>8.352715689345471</v>
       </c>
       <c r="F14">
-        <v>17.11365370713406</v>
+        <v>16.53610931180978</v>
       </c>
       <c r="G14">
-        <v>20.28622234362302</v>
+        <v>21.22284692537942</v>
       </c>
       <c r="H14">
-        <v>6.749595753185448</v>
+        <v>6.717647325263609</v>
       </c>
       <c r="J14">
-        <v>7.493663359983207</v>
+        <v>7.401559458620313</v>
       </c>
       <c r="K14">
-        <v>10.51188506801643</v>
+        <v>10.28678836631433</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.563739580116625</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.993959677026499</v>
       </c>
       <c r="N14">
-        <v>6.089138623744819</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.54063454681341</v>
+        <v>6.067685302916205</v>
       </c>
       <c r="Q14">
-        <v>12.32774566254888</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.75663819639275</v>
+      </c>
+      <c r="S14">
+        <v>11.92842611292095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.97964292481187</v>
+        <v>23.60331121958162</v>
       </c>
       <c r="C15">
-        <v>15.76753577195601</v>
+        <v>16.0295224981901</v>
       </c>
       <c r="D15">
-        <v>5.829604548731984</v>
+        <v>5.984013828735507</v>
       </c>
       <c r="E15">
-        <v>8.474295806462928</v>
+        <v>8.403713665322982</v>
       </c>
       <c r="F15">
-        <v>16.94967235085363</v>
+        <v>16.41378082360165</v>
       </c>
       <c r="G15">
-        <v>20.01679870637786</v>
+        <v>20.76416144712039</v>
       </c>
       <c r="H15">
-        <v>6.953151107169648</v>
+        <v>6.923537793822184</v>
       </c>
       <c r="J15">
-        <v>7.459477172048675</v>
+        <v>7.451159399013392</v>
       </c>
       <c r="K15">
-        <v>10.46444916067508</v>
+        <v>10.26145386471447</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.557749621688879</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.937758235813264</v>
       </c>
       <c r="N15">
-        <v>5.968380667467573</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.56613784677665</v>
+        <v>5.947424107089673</v>
       </c>
       <c r="Q15">
-        <v>12.2250662173324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.7718685690766</v>
+      </c>
+      <c r="S15">
+        <v>11.85933207038307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.24117790300573</v>
+        <v>22.93635244318699</v>
       </c>
       <c r="C16">
-        <v>15.38105780332673</v>
+        <v>15.66614896587749</v>
       </c>
       <c r="D16">
-        <v>5.681226091208487</v>
+        <v>5.799250245642412</v>
       </c>
       <c r="E16">
-        <v>8.432151858473572</v>
+        <v>8.369004431645697</v>
       </c>
       <c r="F16">
-        <v>16.65191758786474</v>
+        <v>16.27453734148023</v>
       </c>
       <c r="G16">
-        <v>19.62686937928659</v>
+        <v>19.41626219420319</v>
       </c>
       <c r="H16">
-        <v>6.683092017706389</v>
+        <v>6.658895144886147</v>
       </c>
       <c r="J16">
-        <v>7.467278556122325</v>
+        <v>7.82094361569732</v>
       </c>
       <c r="K16">
-        <v>10.59874540331951</v>
+        <v>10.44274269588117</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.71109567985922</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.963418482318373</v>
       </c>
       <c r="N16">
-        <v>5.94758702712256</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.52928801931448</v>
+        <v>5.937301086138772</v>
       </c>
       <c r="Q16">
-        <v>12.14844621499859</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.69119990150702</v>
+      </c>
+      <c r="S16">
+        <v>11.90294158453591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.92611935709686</v>
+        <v>22.64415385441848</v>
       </c>
       <c r="C17">
-        <v>14.94958710813916</v>
+        <v>15.2541655262163</v>
       </c>
       <c r="D17">
-        <v>5.537500503184748</v>
+        <v>5.641832610965715</v>
       </c>
       <c r="E17">
-        <v>8.31890747998734</v>
+        <v>8.245009641211624</v>
       </c>
       <c r="F17">
-        <v>16.71721947281046</v>
+        <v>16.39313822502197</v>
       </c>
       <c r="G17">
-        <v>19.8354375161315</v>
+        <v>19.18548159715321</v>
       </c>
       <c r="H17">
-        <v>5.95421775168904</v>
+        <v>5.930573715656426</v>
       </c>
       <c r="J17">
-        <v>7.549115041501901</v>
+        <v>8.052900283327327</v>
       </c>
       <c r="K17">
-        <v>10.83348361959099</v>
+        <v>10.67555397010596</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.884491662655053</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.102347643217784</v>
       </c>
       <c r="N17">
-        <v>6.19731048585864</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.44071453524887</v>
+        <v>6.195953737045438</v>
       </c>
       <c r="Q17">
-        <v>12.29682045294506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.58443993686588</v>
+      </c>
+      <c r="S17">
+        <v>12.08813115836547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.9519315582584</v>
+        <v>22.66182071143314</v>
       </c>
       <c r="C18">
-        <v>14.4394749584477</v>
+        <v>14.77451558700461</v>
       </c>
       <c r="D18">
-        <v>5.38389249378278</v>
+        <v>5.487283319949253</v>
       </c>
       <c r="E18">
-        <v>8.288864898605514</v>
+        <v>8.185605378483981</v>
       </c>
       <c r="F18">
-        <v>17.0966762440337</v>
+        <v>16.76713854660658</v>
       </c>
       <c r="G18">
-        <v>20.57437294574521</v>
+        <v>19.69768251125847</v>
       </c>
       <c r="H18">
-        <v>4.8010460824766</v>
+        <v>4.772843121360138</v>
       </c>
       <c r="J18">
-        <v>7.701229875322249</v>
+        <v>8.252835959261736</v>
       </c>
       <c r="K18">
-        <v>11.18534117288581</v>
+        <v>10.99324274564348</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.10764703001237</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.35543532327259</v>
       </c>
       <c r="N18">
-        <v>6.763988067748065</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.30237658028168</v>
+        <v>6.771702622621251</v>
       </c>
       <c r="Q18">
-        <v>12.64946801683285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.44211510168337</v>
+      </c>
+      <c r="S18">
+        <v>12.43133639485603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.24982216783235</v>
+        <v>22.93123366114698</v>
       </c>
       <c r="C19">
-        <v>13.91737811200595</v>
+        <v>14.29287597683143</v>
       </c>
       <c r="D19">
-        <v>5.236684942806235</v>
+        <v>5.34690335767503</v>
       </c>
       <c r="E19">
-        <v>8.559208314919427</v>
+        <v>8.412710264592496</v>
       </c>
       <c r="F19">
-        <v>17.68990108976747</v>
+        <v>17.31954737204593</v>
       </c>
       <c r="G19">
-        <v>21.66620592836768</v>
+        <v>20.67128127273168</v>
       </c>
       <c r="H19">
-        <v>3.5789617544464</v>
+        <v>3.53873646650831</v>
       </c>
       <c r="J19">
-        <v>7.897138986599981</v>
+        <v>8.440380086952185</v>
       </c>
       <c r="K19">
-        <v>11.61658107420667</v>
+        <v>11.3689467688766</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.36301968844383</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.689453903682725</v>
       </c>
       <c r="N19">
-        <v>7.601702099339248</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.14058644946989</v>
+        <v>7.617859083683877</v>
       </c>
       <c r="Q19">
-        <v>13.13470130920374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.28470242191181</v>
+      </c>
+      <c r="S19">
+        <v>12.87940685242211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.27771630482497</v>
+        <v>23.87891687260591</v>
       </c>
       <c r="C20">
-        <v>13.39721943180449</v>
+        <v>13.84411479479674</v>
       </c>
       <c r="D20">
-        <v>5.117921280295119</v>
+        <v>5.254437064943507</v>
       </c>
       <c r="E20">
-        <v>9.539517497481032</v>
+        <v>9.324107740862468</v>
       </c>
       <c r="F20">
-        <v>18.83910262121597</v>
+        <v>18.33737907092771</v>
       </c>
       <c r="G20">
-        <v>23.66071591898768</v>
+        <v>22.81139989619476</v>
       </c>
       <c r="H20">
-        <v>2.841097730722268</v>
+        <v>2.772823412425819</v>
       </c>
       <c r="J20">
-        <v>8.208964698843905</v>
+        <v>8.586699594756581</v>
       </c>
       <c r="K20">
-        <v>12.25567810175294</v>
+        <v>11.88948415192664</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.66918172538235</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.260342133821476</v>
       </c>
       <c r="N20">
-        <v>9.074881440946115</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.91092644434924</v>
+        <v>9.098206838107915</v>
       </c>
       <c r="Q20">
-        <v>13.96665292098554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.08070199554246</v>
+      </c>
+      <c r="S20">
+        <v>13.60083233671237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.77497171471873</v>
+        <v>25.22219197423887</v>
       </c>
       <c r="C21">
-        <v>13.87326663463211</v>
+        <v>14.29662906801328</v>
       </c>
       <c r="D21">
-        <v>5.327678278703048</v>
+        <v>5.537547723251267</v>
       </c>
       <c r="E21">
-        <v>9.801876912953681</v>
+        <v>9.576542276571017</v>
       </c>
       <c r="F21">
-        <v>19.67170521817719</v>
+        <v>18.82714807656953</v>
       </c>
       <c r="G21">
-        <v>24.87492767931277</v>
+        <v>25.9295581225468</v>
       </c>
       <c r="H21">
-        <v>3.09122033673041</v>
+        <v>2.995261730141031</v>
       </c>
       <c r="J21">
-        <v>8.311043830711844</v>
+        <v>7.812239014997646</v>
       </c>
       <c r="K21">
-        <v>12.28831516336427</v>
+        <v>11.7504387486471</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.43189632272342</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.461201539191463</v>
       </c>
       <c r="N21">
-        <v>9.542111029083282</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.86401991959064</v>
+        <v>9.548799720509663</v>
       </c>
       <c r="Q21">
-        <v>14.37092690010285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.11516352629696</v>
+      </c>
+      <c r="S21">
+        <v>13.72869527829053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.68363349928209</v>
+        <v>26.03140208708847</v>
       </c>
       <c r="C22">
-        <v>14.2052783809813</v>
+        <v>14.60371199860021</v>
       </c>
       <c r="D22">
-        <v>5.468414190662786</v>
+        <v>5.727229855525174</v>
       </c>
       <c r="E22">
-        <v>9.913739580868327</v>
+        <v>9.687542342067188</v>
       </c>
       <c r="F22">
-        <v>20.16996166443757</v>
+        <v>19.09356519905937</v>
       </c>
       <c r="G22">
-        <v>25.58436354195743</v>
+        <v>27.95735205954338</v>
       </c>
       <c r="H22">
-        <v>3.244374659748719</v>
+        <v>3.131006391133903</v>
       </c>
       <c r="J22">
-        <v>8.368218272809971</v>
+        <v>7.3089119169669</v>
       </c>
       <c r="K22">
-        <v>12.28732854953038</v>
+        <v>11.63054733684558</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.26072180781606</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.575880842956306</v>
       </c>
       <c r="N22">
-        <v>9.772842307138404</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.84658182759167</v>
+        <v>9.767937373170147</v>
       </c>
       <c r="Q22">
-        <v>14.6060486554233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.15485842025204</v>
+      </c>
+      <c r="S22">
+        <v>13.77332562091389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.2025260563498</v>
+        <v>25.61366246235348</v>
       </c>
       <c r="C23">
-        <v>14.02910342228675</v>
+        <v>14.45514456585771</v>
       </c>
       <c r="D23">
-        <v>5.393781572619657</v>
+        <v>5.620643632618941</v>
       </c>
       <c r="E23">
-        <v>9.85417391566741</v>
+        <v>9.626001482803124</v>
       </c>
       <c r="F23">
-        <v>19.90426622403347</v>
+        <v>18.9811048750576</v>
       </c>
       <c r="G23">
-        <v>25.20622723738219</v>
+        <v>26.66100900922342</v>
       </c>
       <c r="H23">
-        <v>3.162921723262945</v>
+        <v>3.059652350031338</v>
       </c>
       <c r="J23">
-        <v>8.33728824082768</v>
+        <v>7.655054569562229</v>
       </c>
       <c r="K23">
-        <v>12.28691243928234</v>
+        <v>11.70703157999638</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.35933378720644</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.525658741129662</v>
       </c>
       <c r="N23">
-        <v>9.650341977637172</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.85560913149893</v>
+        <v>9.65320408311098</v>
       </c>
       <c r="Q23">
-        <v>14.48002536277784</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.12858188999934</v>
+      </c>
+      <c r="S23">
+        <v>13.77326189800875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.29526352538299</v>
+        <v>23.89454777298937</v>
       </c>
       <c r="C24">
-        <v>13.33956848402281</v>
+        <v>13.78988681243227</v>
       </c>
       <c r="D24">
-        <v>5.100625507031094</v>
+        <v>5.237285021800972</v>
       </c>
       <c r="E24">
-        <v>9.625558564661665</v>
+        <v>9.405979069438208</v>
       </c>
       <c r="F24">
-        <v>18.89353956312301</v>
+        <v>18.38987275775915</v>
       </c>
       <c r="G24">
-        <v>23.76391243251399</v>
+        <v>22.89024313563901</v>
       </c>
       <c r="H24">
-        <v>2.847986344203244</v>
+        <v>2.779519321989526</v>
       </c>
       <c r="J24">
-        <v>8.229156084862884</v>
+        <v>8.611601743752914</v>
       </c>
       <c r="K24">
-        <v>12.30549972574967</v>
+        <v>11.9341473002177</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.70122429248126</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.296226664282646</v>
       </c>
       <c r="N24">
-        <v>9.172400765340427</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.89583429569935</v>
+        <v>9.196591309556808</v>
       </c>
       <c r="Q24">
-        <v>14.01464526226845</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.06508990106166</v>
+      </c>
+      <c r="S24">
+        <v>13.64672350505831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.05426594073755</v>
+        <v>21.74484606161389</v>
       </c>
       <c r="C25">
-        <v>12.54992556144655</v>
+        <v>12.8554085766239</v>
       </c>
       <c r="D25">
-        <v>4.762486624866673</v>
+        <v>4.865087971216631</v>
       </c>
       <c r="E25">
-        <v>9.372548624680663</v>
+        <v>9.186562947385019</v>
       </c>
       <c r="F25">
-        <v>17.79863098749359</v>
+        <v>17.42124444815625</v>
       </c>
       <c r="G25">
-        <v>22.1927256606142</v>
+        <v>21.19988567562568</v>
       </c>
       <c r="H25">
-        <v>2.49383750205293</v>
+        <v>2.453322505746096</v>
       </c>
       <c r="J25">
-        <v>8.131059924467294</v>
+        <v>8.613338729052552</v>
       </c>
       <c r="K25">
-        <v>12.36517811553251</v>
+        <v>12.0671900997419</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.99830735359361</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.003504568880786</v>
       </c>
       <c r="N25">
-        <v>8.628334602280225</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.9514467910145</v>
+        <v>8.658267027972984</v>
       </c>
       <c r="Q25">
-        <v>13.53919487439926</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.06067263281808</v>
+      </c>
+      <c r="S25">
+        <v>13.2682948630976</v>
       </c>
     </row>
   </sheetData>
